--- a/fhir/IG/StructureDefinition-fhir-ru-patient.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:15:12+03:00</t>
+    <t>2022-03-10T17:36:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Сведения о пациенте для интеграции в московской области</t>
+    <t>Сведения о пациенте.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1538,7 +1538,7 @@
 </t>
   </si>
   <si>
-    <t>Кодирования пола по справочнику ФНСИ.</t>
+    <t>Кодирование пола по справочнику ФНСИ.</t>
   </si>
   <si>
     <t>Расширение для кодирования пола по справочнику ФНСИ.</t>

--- a/fhir/IG/StructureDefinition-fhir-ru-patient.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:36:05+03:00</t>
+    <t>2022-04-27T17:36:36+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
